--- a/data/option.xlsx
+++ b/data/option.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/da-eunlee/Desktop/TeamProject/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411C3C98-D084-4AF3-94CB-E334A26FECAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD00EFAF-4A0A-FC45-B206-56D8E93EF480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1020" windowWidth="21765" windowHeight="14580" xr2:uid="{795250D4-8517-4EDF-A51C-81839C60E51B}"/>
+    <workbookView xWindow="1920" yWindow="1020" windowWidth="21760" windowHeight="14580" xr2:uid="{795250D4-8517-4EDF-A51C-81839C60E51B}"/>
   </bookViews>
   <sheets>
     <sheet name="추세지표" sheetId="1" r:id="rId1"/>
@@ -55,10 +55,6 @@
     <t>AD Line</t>
   </si>
   <si>
-    <t xml:space="preserve">MACD </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>추세가 얼마나 강력한지를 수치화하여 표현한 지표, DX의 이동평균</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -286,6 +282,10 @@
   </si>
   <si>
     <t>moneyflow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MACD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -293,7 +293,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -653,388 +653,388 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="153.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="153.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
         <v>69</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
         <v>69</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
         <v>69</v>
       </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>44</v>
       </c>
-      <c r="B12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>66</v>
       </c>
-      <c r="B16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>3</v>
       </c>
       <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
         <v>70</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>63</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
         <v>71</v>
       </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
         <v>71</v>
       </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
         <v>71</v>
       </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
         <v>71</v>
       </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>52</v>
       </c>
-      <c r="B24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
         <v>53</v>
       </c>
-      <c r="B28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
         <v>54</v>
       </c>
-      <c r="B29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
         <v>55</v>
       </c>
-      <c r="B30" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
         <v>57</v>
       </c>
-      <c r="B33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/data/option.xlsx
+++ b/data/option.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/da-eunlee/Desktop/TeamProject/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD00EFAF-4A0A-FC45-B206-56D8E93EF480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140A02FF-408D-454B-87E1-6411F13E720D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1020" windowWidth="21760" windowHeight="14580" xr2:uid="{795250D4-8517-4EDF-A51C-81839C60E51B}"/>
   </bookViews>
@@ -650,390 +650,493 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA45846-DA48-4E85-9326-DE7C6D3ABD58}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C1" sqref="C1:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="153.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="153.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>72</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>68</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>68</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>60</v>
       </c>
       <c r="B6" t="s">
         <v>68</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>61</v>
       </c>
       <c r="B7" t="s">
         <v>68</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>58</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>59</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>42</v>
       </c>
       <c r="B10" t="s">
         <v>69</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>41</v>
       </c>
       <c r="B11" t="s">
         <v>69</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>43</v>
       </c>
       <c r="B12" t="s">
         <v>69</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>44</v>
       </c>
       <c r="B13" t="s">
         <v>69</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>64</v>
       </c>
       <c r="B14" t="s">
         <v>69</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15" t="s">
         <v>69</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>65</v>
       </c>
       <c r="B16" t="s">
         <v>69</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>45</v>
       </c>
       <c r="B17" t="s">
         <v>69</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>66</v>
       </c>
       <c r="B18" t="s">
         <v>69</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>3</v>
       </c>
       <c r="B19" t="s">
         <v>69</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>62</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>46</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>47</v>
       </c>
       <c r="B22" t="s">
         <v>70</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>63</v>
       </c>
       <c r="B23" t="s">
         <v>70</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>51</v>
       </c>
       <c r="B24" t="s">
         <v>71</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>48</v>
       </c>
       <c r="B25" t="s">
         <v>71</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>49</v>
       </c>
       <c r="B26" t="s">
         <v>71</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>50</v>
       </c>
       <c r="B27" t="s">
         <v>71</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>71</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>53</v>
       </c>
       <c r="B29" t="s">
         <v>71</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>54</v>
       </c>
       <c r="B30" t="s">
         <v>71</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>55</v>
       </c>
       <c r="B31" t="s">
         <v>71</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>4</v>
       </c>
       <c r="B32" t="s">
         <v>71</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>56</v>
       </c>
       <c r="B33" t="s">
         <v>71</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>57</v>
       </c>
       <c r="B34" t="s">
         <v>71</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
         <v>36</v>
       </c>
     </row>

--- a/data/option.xlsx
+++ b/data/option.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/da-eunlee/Desktop/TeamProject/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140A02FF-408D-454B-87E1-6411F13E720D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6362B3E-CE15-354C-BB19-8C1C6ABD8056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1020" windowWidth="21760" windowHeight="14580" xr2:uid="{795250D4-8517-4EDF-A51C-81839C60E51B}"/>
   </bookViews>
@@ -650,493 +650,390 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA45846-DA48-4E85-9326-DE7C6D3ABD58}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="153.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="153.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>68</v>
       </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>72</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>68</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>68</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>60</v>
       </c>
       <c r="B6" t="s">
         <v>68</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>61</v>
       </c>
       <c r="B7" t="s">
         <v>68</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>58</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>59</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>42</v>
       </c>
       <c r="B10" t="s">
         <v>69</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>41</v>
       </c>
       <c r="B11" t="s">
         <v>69</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>43</v>
       </c>
       <c r="B12" t="s">
         <v>69</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
       <c r="B13" t="s">
         <v>69</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>64</v>
       </c>
       <c r="B14" t="s">
         <v>69</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15" t="s">
         <v>69</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>65</v>
       </c>
       <c r="B16" t="s">
         <v>69</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>45</v>
       </c>
       <c r="B17" t="s">
         <v>69</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>66</v>
       </c>
       <c r="B18" t="s">
         <v>69</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>3</v>
       </c>
       <c r="B19" t="s">
         <v>69</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>62</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>46</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>47</v>
       </c>
       <c r="B22" t="s">
         <v>70</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>63</v>
       </c>
       <c r="B23" t="s">
         <v>70</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>51</v>
       </c>
       <c r="B24" t="s">
         <v>71</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>48</v>
       </c>
       <c r="B25" t="s">
         <v>71</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>49</v>
       </c>
       <c r="B26" t="s">
         <v>71</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>50</v>
       </c>
       <c r="B27" t="s">
         <v>71</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>71</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>53</v>
       </c>
       <c r="B29" t="s">
         <v>71</v>
       </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>54</v>
       </c>
       <c r="B30" t="s">
         <v>71</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>55</v>
       </c>
       <c r="B31" t="s">
         <v>71</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>4</v>
       </c>
       <c r="B32" t="s">
         <v>71</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="C32" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>56</v>
       </c>
       <c r="B33" t="s">
         <v>71</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="C33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>57</v>
       </c>
       <c r="B34" t="s">
         <v>71</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="C34" t="s">
         <v>36</v>
       </c>
     </row>
